--- a/vignettes/link_sf.xlsx
+++ b/vignettes/link_sf.xlsx
@@ -289,7 +289,7 @@
     <t xml:space="preserve">Plexus</t>
   </si>
   <si>
-    <t xml:space="preserve">PLEX, PED A </t>
+    <t xml:space="preserve">PLEX, PED A</t>
   </si>
   <si>
     <t xml:space="preserve">PLEX, PED B</t>
@@ -584,8 +584,8 @@
   </sheetPr>
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
